--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_8_36.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_8_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3409460.438109823</v>
+        <v>3406915.252036538</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8193408.892669451</v>
+        <v>8193408.89266945</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>276.4313245027208</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -713,19 +713,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>9.283029612712731</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -817,19 +817,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>59.66385641544537</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -865,19 +865,19 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>168.7756050755994</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -896,25 +896,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>162.0432948109163</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>52.33159926298225</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -959,10 +959,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1054,16 +1054,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1096,13 +1096,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,16 +1111,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>139.6528551206849</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>59.72683757586846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1148,10 +1148,10 @@
         <v>12.9169039459368</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>133.4098565753246</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>44.67157853973497</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1196,10 +1196,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1336,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>150.5509630666493</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>202.3860496764733</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1531,22 +1531,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>161.3555494301526</v>
+        <v>91.87204320893622</v>
       </c>
     </row>
     <row r="14">
@@ -1610,7 +1610,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1765,13 +1765,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>103.8784673763403</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187863</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1895,7 +1895,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2005,10 +2005,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2017,7 +2017,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2065,10 +2065,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>92.01576915440816</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187862</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>136.5667167289874</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2482,13 +2482,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>42.14967908986381</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>53.11937003877873</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2722,13 +2722,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,7 +2767,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>65.44930784064577</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2950,22 +2950,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3187,25 +3187,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3247,7 +3247,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>161.5330709997918</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3433,16 +3433,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>1.799772605716619</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>136.5667167289879</v>
       </c>
       <c r="C40" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3755,7 +3755,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>41.33703994142957</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3958,7 +3958,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>75.55208621972962</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>117.4765410832882</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4144,13 +4144,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1857.168914859137</v>
+        <v>913.7382812066351</v>
       </c>
       <c r="C2" t="n">
-        <v>1488.206397918725</v>
+        <v>913.7382812066351</v>
       </c>
       <c r="D2" t="n">
-        <v>1129.940699311975</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="E2" t="n">
-        <v>744.1524467137303</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F2" t="n">
-        <v>333.1665419241228</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4361,19 +4361,19 @@
         <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2247.308246834948</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2247.308246834948</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2247.308246834948</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>2247.308246834948</v>
+        <v>1300.338121270757</v>
       </c>
       <c r="Y2" t="n">
-        <v>1857.168914859137</v>
+        <v>1300.338121270757</v>
       </c>
     </row>
     <row r="3">
@@ -4398,7 +4398,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4410,13 +4410,13 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>667.8624625746712</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1759.555763042629</v>
+        <v>854.9003034538789</v>
       </c>
       <c r="C5" t="n">
-        <v>1759.555763042629</v>
+        <v>485.9377865134672</v>
       </c>
       <c r="D5" t="n">
-        <v>1595.875667274027</v>
+        <v>127.6720879067167</v>
       </c>
       <c r="E5" t="n">
-        <v>1210.087414675782</v>
+        <v>127.6720879067167</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861748</v>
+        <v>120.7265871575132</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>106.8031830961041</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>106.8031830961041</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4592,25 +4592,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U5" t="n">
-        <v>2443.387305656314</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V5" t="n">
-        <v>2112.324418312743</v>
+        <v>1971.274048960885</v>
       </c>
       <c r="W5" t="n">
-        <v>1759.555763042629</v>
+        <v>1618.50539369077</v>
       </c>
       <c r="X5" t="n">
-        <v>1759.555763042629</v>
+        <v>1245.039635429691</v>
       </c>
       <c r="Y5" t="n">
-        <v>1759.555763042629</v>
+        <v>854.9003034538789</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4647,10 +4647,10 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
         <v>1194.968834417902</v>
@@ -4665,28 +4665,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>667.7988452409105</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>667.7988452409105</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,49 +4778,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>817.9898114977311</v>
+        <v>1624.868414265522</v>
       </c>
       <c r="C8" t="n">
-        <v>817.9898114977311</v>
+        <v>1255.905897325111</v>
       </c>
       <c r="D8" t="n">
-        <v>459.7241128909807</v>
+        <v>897.6401987183604</v>
       </c>
       <c r="E8" t="n">
-        <v>73.93586029273641</v>
+        <v>511.8519461201161</v>
       </c>
       <c r="F8" t="n">
-        <v>66.99035954353293</v>
+        <v>504.9064453709126</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>491.8590676477442</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>173.6359524202537</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>75.17723181374775</v>
+        <v>242.5828808341008</v>
       </c>
       <c r="K8" t="n">
-        <v>192.4307036906658</v>
+        <v>325.1460354086931</v>
       </c>
       <c r="L8" t="n">
-        <v>745.243961936865</v>
+        <v>877.9592936548923</v>
       </c>
       <c r="M8" t="n">
-        <v>1376.961772920177</v>
+        <v>1509.677104638204</v>
       </c>
       <c r="N8" t="n">
-        <v>2004.269440980023</v>
+        <v>1704.011317530186</v>
       </c>
       <c r="O8" t="n">
-        <v>2551.430645747101</v>
+        <v>2022.658083904027</v>
       </c>
       <c r="P8" t="n">
-        <v>2662.164970996627</v>
+        <v>2451.973130243322</v>
       </c>
       <c r="Q8" t="n">
         <v>2697.149091018222</v>
@@ -4829,25 +4829,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2562.391660134056</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2562.391660134056</v>
       </c>
       <c r="U8" t="n">
-        <v>2652.02628441243</v>
+        <v>2308.699956879207</v>
       </c>
       <c r="V8" t="n">
-        <v>2320.963397068859</v>
+        <v>1977.637069535637</v>
       </c>
       <c r="W8" t="n">
-        <v>1968.194741798744</v>
+        <v>1624.868414265522</v>
       </c>
       <c r="X8" t="n">
-        <v>1594.728983537665</v>
+        <v>1624.868414265522</v>
       </c>
       <c r="Y8" t="n">
-        <v>1204.589651561853</v>
+        <v>1624.868414265522</v>
       </c>
     </row>
     <row r="9">
@@ -4887,19 +4887,19 @@
         <v>502.03063798307</v>
       </c>
       <c r="L9" t="n">
-        <v>639.260235998764</v>
+        <v>1006.392177849189</v>
       </c>
       <c r="M9" t="n">
-        <v>1279.805585465869</v>
+        <v>1185.889514203793</v>
       </c>
       <c r="N9" t="n">
-        <v>1640.147320825857</v>
+        <v>1747.448946920904</v>
       </c>
       <c r="O9" t="n">
-        <v>2189.58332957858</v>
+        <v>2296.884955673627</v>
       </c>
       <c r="P9" t="n">
-        <v>2613.551098059417</v>
+        <v>2405.574583200926</v>
       </c>
       <c r="Q9" t="n">
         <v>2636.288039261394</v>
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>667.7988452409105</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
         <v>53.94298182036445</v>
@@ -4984,28 +4984,28 @@
         <v>1053.877663279709</v>
       </c>
       <c r="R10" t="n">
-        <v>1053.877663279709</v>
+        <v>923.3997019991118</v>
       </c>
       <c r="S10" t="n">
-        <v>1053.877663279709</v>
+        <v>715.9594172515172</v>
       </c>
       <c r="T10" t="n">
-        <v>1053.877663279709</v>
+        <v>715.9594172515172</v>
       </c>
       <c r="U10" t="n">
-        <v>1053.877663279709</v>
+        <v>426.8072408291969</v>
       </c>
       <c r="V10" t="n">
-        <v>1053.877663279709</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="W10" t="n">
-        <v>1053.877663279709</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X10" t="n">
-        <v>1053.877663279709</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y10" t="n">
-        <v>849.4473100711502</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5027,7 +5027,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5115,25 +5115,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962606</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N12" t="n">
-        <v>1700.311647517212</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>2252.221377756499</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
         <v>2283.159972732779</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>571.6607764188008</v>
+        <v>641.8461362382112</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908939</v>
+        <v>472.9099533103043</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908939</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908939</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5242,7 +5242,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>753.3092412490405</v>
+        <v>823.4946010684509</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5252,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5276,10 +5276,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5309,19 +5309,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5352,25 +5352,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M15" t="n">
-        <v>1231.938859683105</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N15" t="n">
-        <v>1859.536823237711</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
         <v>2283.159972732779</v>
@@ -5413,19 +5413,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5513,10 +5513,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5546,19 +5546,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5598,19 +5598,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M18" t="n">
-        <v>691.1951506745238</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N18" t="n">
-        <v>1318.79311422913</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O18" t="n">
-        <v>1870.702844468417</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="Q18" t="n">
         <v>2516.421633107662</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5713,10 +5713,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1051.338974243769</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="20">
@@ -5726,37 +5726,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192457</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075793</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014777</v>
@@ -5765,37 +5765,37 @@
         <v>2950.898526355935</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429803</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429803</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>378.6527890600109</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>231.7628415621006</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5966,70 +5966,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>699.2677182139842</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>1101.708762187754</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>880.9161830442239</v>
       </c>
     </row>
     <row r="26">
@@ -6227,19 +6227,19 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6309,16 +6309,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
         <v>2283.159972732779</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>803.8641191832229</v>
+        <v>641.8461362382112</v>
       </c>
       <c r="C28" t="n">
-        <v>634.927936255316</v>
+        <v>472.9099533103043</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429803</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
         <v>175.9033664000583</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1978.396372297858</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1723.711884091971</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1434.29471405501</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1206.305163156993</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>985.5125840134626</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6443,40 +6443,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075796</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6546,22 +6546,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M30" t="n">
-        <v>691.1951506745238</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N30" t="n">
-        <v>1318.79311422913</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O30" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6598,19 +6598,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6689,31 +6689,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1270.536647467212</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>1042.547096569194</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>821.7545174256642</v>
       </c>
     </row>
     <row r="35">
@@ -6923,34 +6923,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>740.5562989961526</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>1889.844516861991</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2313.46766635706</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2546.729326731942</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7154,40 +7154,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7248,19 +7248,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N39" t="n">
         <v>1307.627092998424</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>557.5558870561822</v>
       </c>
       <c r="C40" t="n">
-        <v>484.8112968429803</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429803</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7385,46 +7385,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>695.5020655703109</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C43" t="n">
-        <v>526.5658826424041</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D43" t="n">
-        <v>484.8112968429803</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429803</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1357.386127043032</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1129.396576145015</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>908.6039970014847</v>
       </c>
     </row>
     <row r="44">
@@ -7643,22 +7643,22 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7722,19 +7722,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>95.58405025273903</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>95.58405025273903</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N45" t="n">
         <v>1307.627092998424</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>576.8388927589092</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7804,52 +7804,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>145.029416914201</v>
+        <v>145.0294169142008</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8222,7 +8222,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N5" t="n">
         <v>437.3469244119842</v>
@@ -8295,13 +8295,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142014</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516223</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8450,10 +8450,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>35.04072454780376</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
@@ -8462,16 +8462,16 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>380.8001812627454</v>
+        <v>149.9775162190718</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8535,22 +8535,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>163.3181754619432</v>
+        <v>366.568374812572</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8705,13 +8705,13 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8933,7 +8933,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9170,7 +9170,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10355,7 +10355,7 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>-1.591615728102624e-12</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -10601,7 +10601,7 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>-8.144969615027459e-13</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>-2.300097184559153e-14</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -11066,7 +11066,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>57.22910392194223</v>
+        <v>126.7126101431586</v>
       </c>
     </row>
     <row r="14">
@@ -23653,13 +23653,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>44.73700564187206</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23668,7 +23668,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23893,10 +23893,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23905,7 +23905,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23953,10 +23953,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>133.693886234629</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>28.9574215632814</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24370,19 +24370,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>183.5599762991733</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>126.7126101431586</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24610,13 +24610,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>220.7351665485984</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24838,22 +24838,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -25075,25 +25075,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25135,7 +25135,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>124.9899273367992</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25321,16 +25321,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>143.6212754172146</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25546,28 +25546,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>43.2652634529494</v>
       </c>
       <c r="C40" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25783,28 +25783,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>107.2784330767828</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25846,7 +25846,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>210.9709121168614</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>62.35543909864911</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26032,16 +26032,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>690954.1614566039</v>
+        <v>690954.1614566038</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>690954.161456604</v>
+        <v>690954.1614566039</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.5928778545</v>
+        <v>738937.5928778547</v>
       </c>
       <c r="C2" t="n">
         <v>738937.5928778547</v>
       </c>
       <c r="D2" t="n">
-        <v>738937.5928778554</v>
+        <v>738937.5928778555</v>
       </c>
       <c r="E2" t="n">
-        <v>726431.9397210053</v>
+        <v>726431.9397210055</v>
       </c>
       <c r="F2" t="n">
-        <v>726431.9397210056</v>
+        <v>726431.9397210055</v>
       </c>
       <c r="G2" t="n">
         <v>726431.9397210056</v>
       </c>
       <c r="H2" t="n">
-        <v>726431.9397210052</v>
+        <v>726431.9397210054</v>
       </c>
       <c r="I2" t="n">
         <v>726431.9397210053</v>
       </c>
       <c r="J2" t="n">
+        <v>726431.9397210052</v>
+      </c>
+      <c r="K2" t="n">
+        <v>726431.9397210054</v>
+      </c>
+      <c r="L2" t="n">
+        <v>726431.9397210054</v>
+      </c>
+      <c r="M2" t="n">
         <v>726431.9397210053</v>
       </c>
-      <c r="K2" t="n">
+      <c r="N2" t="n">
+        <v>726431.9397210054</v>
+      </c>
+      <c r="O2" t="n">
         <v>726431.9397210055</v>
       </c>
-      <c r="L2" t="n">
-        <v>726431.9397210053</v>
-      </c>
-      <c r="M2" t="n">
-        <v>726431.939721005</v>
-      </c>
-      <c r="N2" t="n">
-        <v>726431.9397210056</v>
-      </c>
-      <c r="O2" t="n">
-        <v>726431.9397210053</v>
-      </c>
       <c r="P2" t="n">
-        <v>726431.9397210053</v>
+        <v>726431.9397210049</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26384,16 +26384,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925928</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.62584001373034e-10</v>
       </c>
       <c r="M3" t="n">
         <v>124208.5107080585</v>
@@ -26421,43 +26421,43 @@
         <v>209922.4154630333</v>
       </c>
       <c r="D4" t="n">
-        <v>176266.9759012794</v>
+        <v>176266.9759012793</v>
       </c>
       <c r="E4" t="n">
-        <v>5677.536566682751</v>
+        <v>5677.536566682773</v>
       </c>
       <c r="F4" t="n">
-        <v>5677.536566682775</v>
+        <v>5677.536566682754</v>
       </c>
       <c r="G4" t="n">
-        <v>5677.536566682737</v>
+        <v>5677.536566682767</v>
       </c>
       <c r="H4" t="n">
         <v>5677.536566682745</v>
       </c>
       <c r="I4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="J4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="K4" t="n">
-        <v>5677.536566682775</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="L4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682719</v>
       </c>
       <c r="M4" t="n">
+        <v>5677.536566682726</v>
+      </c>
+      <c r="N4" t="n">
+        <v>5677.536566682718</v>
+      </c>
+      <c r="O4" t="n">
+        <v>5677.536566682733</v>
+      </c>
+      <c r="P4" t="n">
         <v>5677.536566682744</v>
-      </c>
-      <c r="N4" t="n">
-        <v>5677.536566682777</v>
-      </c>
-      <c r="O4" t="n">
-        <v>5677.536566682751</v>
-      </c>
-      <c r="P4" t="n">
-        <v>5677.536566682745</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-143811.7798631327</v>
+        <v>-143811.7798631326</v>
       </c>
       <c r="C6" t="n">
-        <v>446156.0993514119</v>
+        <v>446156.099351412</v>
       </c>
       <c r="D6" t="n">
         <v>290352.2932576177</v>
       </c>
       <c r="E6" t="n">
-        <v>-151420.818050391</v>
+        <v>-151455.5559758265</v>
       </c>
       <c r="F6" t="n">
-        <v>619631.8733304158</v>
+        <v>619597.13540498</v>
       </c>
       <c r="G6" t="n">
-        <v>619631.8733304158</v>
+        <v>619597.1354049802</v>
       </c>
       <c r="H6" t="n">
-        <v>619631.8733304153</v>
+        <v>619597.1354049799</v>
       </c>
       <c r="I6" t="n">
-        <v>619631.8733304155</v>
+        <v>619597.1354049797</v>
       </c>
       <c r="J6" t="n">
-        <v>443208.6541378225</v>
+        <v>443173.9162123868</v>
       </c>
       <c r="K6" t="n">
-        <v>619631.8733304157</v>
+        <v>619597.1354049799</v>
       </c>
       <c r="L6" t="n">
-        <v>619631.8733304155</v>
+        <v>619597.1354049798</v>
       </c>
       <c r="M6" t="n">
-        <v>495423.3626223567</v>
+        <v>495388.6246969212</v>
       </c>
       <c r="N6" t="n">
-        <v>619631.8733304158</v>
+        <v>619597.1354049799</v>
       </c>
       <c r="O6" t="n">
-        <v>619631.8733304155</v>
+        <v>619597.13540498</v>
       </c>
       <c r="P6" t="n">
-        <v>619631.8733304155</v>
+        <v>619597.1354049795</v>
       </c>
     </row>
   </sheetData>
@@ -26692,13 +26692,13 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1.625264418577701e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1.6252644185777e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>1.015790261611063e-14</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1.625264418577701e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26987,7 +26987,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1.625264418577701e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>137.3528455180742</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,19 +27433,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>360.4480710657563</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27537,19 +27537,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>107.5829646831825</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,22 +27582,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>117.5062691663784</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27616,25 +27616,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>192.6397468097667</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>99.599716981879</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,13 +27664,13 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27679,10 +27679,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,16 +27774,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27816,13 +27816,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27831,16 +27831,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>112.4847882031431</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>158.8578157762263</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>21.24303055281555</v>
       </c>
       <c r="T8" t="n">
         <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
-        <v>206.4832076825656</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.9207765545704</v>
@@ -28056,19 +28056,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>101.5866802571787</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>16.19860367562146</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28330,7 +28330,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>2.8421709430404e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30475,7 +30475,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31835,28 +31835,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>422.1299181110993</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>165.2255134509767</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
         <v>375.599612848529</v>
@@ -32072,28 +32072,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>402.2342772868842</v>
       </c>
       <c r="M15" t="n">
-        <v>302.967544750805</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>375.599612848529</v>
@@ -32318,7 +32318,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32330,10 +32330,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>550.5977692975241</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>291.8940795642898</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
@@ -32546,7 +32546,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32561,19 +32561,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>332.1692388321076</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>429.5828357723605</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33029,19 +33029,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>681.5735157229393</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>375.599612848529</v>
@@ -33266,7 +33266,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33275,7 +33275,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>188.4731159523455</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
@@ -33284,7 +33284,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>555.1777416630679</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>152.0754244981384</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>366.8427442359099</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>277.2922978908101</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>732.4825987614915</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>368.6279838366847</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>138.3897561047522</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,13 +34787,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34942,7 +34942,7 @@
         <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060963</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
         <v>478.8956552492236</v>
@@ -35015,13 +35015,13 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338902</v>
@@ -35170,10 +35170,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>21.44873736705384</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K8" t="n">
-        <v>118.4378503807253</v>
+        <v>83.39712583292157</v>
       </c>
       <c r="L8" t="n">
         <v>558.3972305517163</v>
@@ -35182,16 +35182,16 @@
         <v>638.0987989730422</v>
       </c>
       <c r="N8" t="n">
-        <v>633.6441091513602</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O8" t="n">
-        <v>552.6880856233105</v>
+        <v>321.865420579637</v>
       </c>
       <c r="P8" t="n">
-        <v>111.8528537874005</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q8" t="n">
-        <v>35.33749497130819</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35255,22 +35255,22 @@
         <v>332.7559639452625</v>
       </c>
       <c r="L9" t="n">
-        <v>138.615755571408</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
-        <v>647.0155045122269</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N9" t="n">
-        <v>363.9815508686752</v>
+        <v>567.231750219304</v>
       </c>
       <c r="O9" t="n">
         <v>554.9858674269929</v>
       </c>
       <c r="P9" t="n">
-        <v>428.2502711927643</v>
+        <v>109.7875025528271</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.96660727472423</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35425,13 +35425,13 @@
         <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q11" t="n">
         <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,28 +35483,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>283.5755383312251</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>31.25110603664647</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625075</v>
@@ -35644,7 +35644,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K14" t="n">
         <v>479.454324036777</v>
@@ -35653,7 +35653,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
@@ -35720,28 +35720,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>263.67989750701</v>
       </c>
       <c r="M15" t="n">
-        <v>160.8335108287866</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>235.6178387625075</v>
@@ -35881,7 +35881,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K17" t="n">
         <v>479.454324036777</v>
@@ -35890,7 +35890,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
@@ -35966,7 +35966,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35978,10 +35978,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>416.6233618831939</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>151.9123054782682</v>
       </c>
       <c r="R18" t="n">
         <v>37.00975247789211</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36209,19 +36209,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,25 +36440,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>295.6084283580303</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36677,19 +36677,19 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>550.231803639606</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625075</v>
@@ -36853,7 +36853,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,7 +36914,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,7 +36923,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>45.87687150790109</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
@@ -36932,7 +36932,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>416.6233618831937</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>6.395920534174421</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>235.5010321525766</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>134.6960534463657</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>590.3485648394733</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>237.2862717533515</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
